--- a/reports/f1_values_rede_1_2.xlsx
+++ b/reports/f1_values_rede_1_2.xlsx
@@ -1,43 +1,87 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files\Arquivos Incomuns\Projeto Final\semiauto-video-annotation\reports\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04CA537C-93ED-4D39-BC36-9D0D561CB7A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="10">
+  <si>
+    <t>rede</t>
+  </si>
+  <si>
+    <t>dataset</t>
+  </si>
+  <si>
+    <t>validation</t>
+  </si>
+  <si>
+    <t>mean_acc</t>
+  </si>
+  <si>
+    <t>std_acc</t>
+  </si>
+  <si>
+    <t>f1_positive</t>
+  </si>
+  <si>
+    <t>f1_negative</t>
+  </si>
+  <si>
+    <t>reference</t>
+  </si>
+  <si>
+    <t>ref</t>
+  </si>
+  <si>
+    <t>semiauto</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -46,27 +90,136 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="7">
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+      </border>
+    </dxf>
+  </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{51D2B161-A747-4EAF-97FD-B71C56052336}" name="Tabela1" displayName="Tabela1" ref="B1:H9" totalsRowShown="0" headerRowDxfId="4" headerRowBorderDxfId="5" tableBorderDxfId="6">
+  <autoFilter ref="B1:H9" xr:uid="{01A44FD4-1840-447F-99F8-B65A765E1022}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:H9">
+    <sortCondition ref="B1:B9"/>
+  </sortState>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{E4F7622E-06CC-4119-B320-A9D4AB7A364A}" name="rede"/>
+    <tableColumn id="2" xr3:uid="{48E3D0B1-0BCE-4F05-836C-76ADB7AE1BA5}" name="dataset"/>
+    <tableColumn id="3" xr3:uid="{060770CC-83D8-4B79-84E1-64A1D5A81039}" name="validation"/>
+    <tableColumn id="4" xr3:uid="{534611FA-98B3-443D-A15B-220C11A5FA44}" name="mean_acc" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{E7F6783B-0753-4124-9911-FAD743201292}" name="std_acc" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{4173D2DC-773B-41D9-B838-95DE045CF931}" name="f1_positive" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{31531D2A-C4ED-4385-82D4-CE960E1FD957}" name="f1_negative" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -353,297 +506,259 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="9.1796875" customWidth="1"/>
+    <col min="4" max="4" width="9.08984375" customWidth="1"/>
+    <col min="5" max="5" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="12.54296875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>rede</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>dataset</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>validation</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>mean_acc</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>std_acc</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>f1_positive</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>f1_negative</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>reference</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>ref</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>0.9109743847312908</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.04357106981416375</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.9167883211678832</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.8689655172413794</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.91097438473129078</v>
+      </c>
+      <c r="F2" s="4">
+        <v>4.3571069814163747E-2</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0.91678832116788322</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0.86896551724137938</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.92411685919973219</v>
+      </c>
+      <c r="F3" s="4">
+        <v>1.5277080194207321E-2</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.93598862019914653</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0.8920863309352518</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>reference</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>ref</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>0.961417157275021</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.004100084104289359</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.9589041095890412</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.9631901840490797</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.88241690631269587</v>
+      </c>
+      <c r="F4" s="4">
+        <v>4.7011635303247867E-2</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.93551323344069459</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0.82015231400117172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.9445103719048209</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1.0447716509495161E-2</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.96557059961315284</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0.90560215986886516</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>reference</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>semiauto</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>0.8824169063126959</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.04701163530324787</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.9355132334406946</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.8201523140011717</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.96141715727502097</v>
+      </c>
+      <c r="F6" s="4">
+        <v>4.1000841042893588E-3</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.95890410958904115</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0.96319018404907975</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
         <v>2</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>reference</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>semiauto</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>0.7783519332228159</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.169841813739763</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.6748242293131422</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.9240630229547535</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>semiauto</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>ref</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>0.9241168591997322</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.01527708019420732</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.9359886201991465</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.8920863309352518</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.88610176619007563</v>
+      </c>
+      <c r="F7" s="4">
+        <v>1.023969722455847E-2</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.87889273356401376</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0.89361702127659581</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
         <v>2</v>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>semiauto</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>ref</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>0.8861017661900756</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.01023969722455847</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.8788927335640138</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.8936170212765958</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>semiauto</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>semiauto</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>0.9445103719048209</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.01044771650949516</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.9655705996131528</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.9056021598688652</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+      <c r="C8" t="s">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.77835193322281593</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0.16984181373976301</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.67482422931314223</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0.92406302295475351</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
         <v>2</v>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>semiauto</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>semiauto</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>0.9461504946006736</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.01247578111615771</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.8937386940538017</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.9701460727576766</v>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.94615049460067358</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1.247578111615771E-2</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.89373869405380169</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0.97014607275767661</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>